--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.669223759774</v>
+        <v>1102.108474609721</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.11129540203638</v>
+        <v>31.66476518151241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.23020809051063</v>
+        <v>11.3617373879571</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.04813644823639</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1689.180000000011</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.56</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.46902814888774</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.32864898449879</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34.05123405644787</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.50084538957422</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.92645506346165</v>
+        <v>37.1305729572104</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.56625148731303</v>
+        <v>42.97768911990952</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1059,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1073,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1087,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,127 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.5050000000006</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>188.4800000000006</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>199.3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1482,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>197.9800000000006</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1493,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>181.8750000000007</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1504,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>171.4600000000007</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>184.55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>174.3400000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -1537,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>179.2150000000007</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>178.8850000000007</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1559,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1603,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>119.365</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1625,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>131.325</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1636,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>122.19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>129.57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>130.39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>171.4600000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>184.55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1691,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>174.3400000000007</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1702,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.2150000000007</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>178.8850000000007</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1724,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.5050000000006</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
@@ -1735,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>188.4800000000006</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>199.3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.9800000000006</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
@@ -1768,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.8750000000007</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>71.46000000000072</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1826,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>84.55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>74.34000000000071</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1848,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>79.21500000000071</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>78.88500000000073</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.50500000000065</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>88.48000000000064</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1892,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>99.3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1903,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.98000000000064</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1914,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>81.87500000000074</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2027,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2038,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2049,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2060,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2071,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2082,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2093,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2104,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2115,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2126,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2137,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2148,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2159,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2170,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2203,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2214,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2225,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2310,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2321,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2332,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2343,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2354,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2368,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2376,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2387,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2398,10 +2242,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2409,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2420,56 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
